--- a/AFDM:ChlA/Compiled Meso Data.xlsx
+++ b/AFDM:ChlA/Compiled Meso Data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="164">
   <si>
     <t>Ford 37</t>
   </si>
@@ -505,13 +505,19 @@
   </si>
   <si>
     <t>treatment</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -523,6 +529,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -543,8 +561,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -553,7 +573,9 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -883,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -894,7 +916,7 @@
     <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>158</v>
       </c>
@@ -907,8 +929,17 @@
       <c r="D1" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,8 +952,17 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -935,8 +975,17 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -949,8 +998,17 @@
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -963,8 +1021,17 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -977,8 +1044,17 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1067,17 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,8 +1090,17 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1019,8 +1113,17 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1136,17 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1047,8 +1159,17 @@
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1061,8 +1182,17 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1205,17 @@
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1089,8 +1228,17 @@
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1103,8 +1251,17 @@
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1117,8 +1274,17 @@
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1131,8 +1297,17 @@
       <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,8 +1320,17 @@
       <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1159,8 +1343,17 @@
       <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1173,8 +1366,17 @@
       <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1187,8 +1389,17 @@
       <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1201,8 +1412,17 @@
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1215,8 +1435,17 @@
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1229,8 +1458,17 @@
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1243,8 +1481,17 @@
       <c r="D25" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1257,8 +1504,17 @@
       <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1271,8 +1527,17 @@
       <c r="D27" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E27" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -1285,8 +1550,17 @@
       <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E28" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1299,8 +1573,17 @@
       <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1313,8 +1596,17 @@
       <c r="D30" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1327,8 +1619,17 @@
       <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -1341,8 +1642,17 @@
       <c r="D32" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -1355,8 +1665,17 @@
       <c r="D33" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1369,8 +1688,17 @@
       <c r="D34" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -1383,8 +1711,17 @@
       <c r="D35" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -1397,8 +1734,17 @@
       <c r="D36" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -1411,8 +1757,17 @@
       <c r="D37" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -1425,8 +1780,17 @@
       <c r="D38" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1439,8 +1803,17 @@
       <c r="D39" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1453,8 +1826,17 @@
       <c r="D40" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1467,8 +1849,17 @@
       <c r="D41" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1481,8 +1872,17 @@
       <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1495,8 +1895,17 @@
       <c r="D43" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E43" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -1509,8 +1918,17 @@
       <c r="D44" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -1523,8 +1941,17 @@
       <c r="D45" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -1537,8 +1964,17 @@
       <c r="D46" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E46" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -1551,8 +1987,17 @@
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -1565,8 +2010,17 @@
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E48" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1579,8 +2033,17 @@
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E49" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1593,8 +2056,17 @@
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1607,8 +2079,17 @@
       <c r="D51" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E51" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -1621,8 +2102,17 @@
       <c r="D52" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E52" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -1635,8 +2125,17 @@
       <c r="D53" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -1649,8 +2148,17 @@
       <c r="D54" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -1663,8 +2171,17 @@
       <c r="D55" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -1677,8 +2194,17 @@
       <c r="D56" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -1691,8 +2217,17 @@
       <c r="D57" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E57" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -1705,8 +2240,17 @@
       <c r="D58" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -1719,8 +2263,17 @@
       <c r="D59" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E59" t="s">
+        <v>162</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -1733,8 +2286,17 @@
       <c r="D60" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E60" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -1747,8 +2309,17 @@
       <c r="D61" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E61" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -1761,8 +2332,17 @@
       <c r="D62" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E62" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -1775,8 +2355,17 @@
       <c r="D63" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E63" t="s">
+        <v>163</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -1789,8 +2378,17 @@
       <c r="D64" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E64" t="s">
+        <v>163</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -1803,8 +2401,17 @@
       <c r="D65" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E65" t="s">
+        <v>163</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -1817,8 +2424,17 @@
       <c r="D66" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E66" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -1831,8 +2447,17 @@
       <c r="D67" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E67" t="s">
+        <v>163</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -1845,8 +2470,17 @@
       <c r="D68" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E68" t="s">
+        <v>163</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
@@ -1859,8 +2493,17 @@
       <c r="D69" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E69" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -1873,8 +2516,17 @@
       <c r="D70" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E70" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -1887,8 +2539,17 @@
       <c r="D71" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E71" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
@@ -1901,8 +2562,17 @@
       <c r="D72" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E72" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -1915,8 +2585,17 @@
       <c r="D73" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E73" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -1929,8 +2608,17 @@
       <c r="D74" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E74" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
@@ -1943,8 +2631,17 @@
       <c r="D75" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E75" t="s">
+        <v>162</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -1957,8 +2654,17 @@
       <c r="D76" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E76" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>85</v>
       </c>
@@ -1971,8 +2677,17 @@
       <c r="D77" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E77" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>86</v>
       </c>
@@ -1985,8 +2700,17 @@
       <c r="D78" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E78" t="s">
+        <v>162</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
@@ -1999,8 +2723,17 @@
       <c r="D79" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E79" t="s">
+        <v>162</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -2013,8 +2746,17 @@
       <c r="D80" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E80" t="s">
+        <v>163</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>89</v>
       </c>
@@ -2027,8 +2769,17 @@
       <c r="D81" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E81" t="s">
+        <v>163</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>90</v>
       </c>
@@ -2041,8 +2792,17 @@
       <c r="D82" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E82" t="s">
+        <v>163</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>91</v>
       </c>
@@ -2055,8 +2815,17 @@
       <c r="D83" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>92</v>
       </c>
@@ -2069,8 +2838,17 @@
       <c r="D84" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>93</v>
       </c>
@@ -2083,8 +2861,17 @@
       <c r="D85" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
@@ -2097,8 +2884,17 @@
       <c r="D86" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -2111,8 +2907,17 @@
       <c r="D87" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E87" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -2125,8 +2930,17 @@
       <c r="D88" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>97</v>
       </c>
@@ -2139,8 +2953,17 @@
       <c r="D89" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E89" t="s">
+        <v>162</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -2153,8 +2976,17 @@
       <c r="D90" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E90" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -2167,8 +2999,17 @@
       <c r="D91" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E91" t="s">
+        <v>162</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -2181,8 +3022,17 @@
       <c r="D92" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E92" t="s">
+        <v>163</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
@@ -2195,8 +3045,17 @@
       <c r="D93" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E93" t="s">
+        <v>163</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>102</v>
       </c>
@@ -2209,8 +3068,17 @@
       <c r="D94" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E94" t="s">
+        <v>163</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>103</v>
       </c>
@@ -2223,8 +3091,17 @@
       <c r="D95" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E95" t="s">
+        <v>163</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>104</v>
       </c>
@@ -2237,8 +3114,17 @@
       <c r="D96" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E96" t="s">
+        <v>162</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>105</v>
       </c>
@@ -2251,8 +3137,17 @@
       <c r="D97" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E97" t="s">
+        <v>162</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>106</v>
       </c>
@@ -2265,8 +3160,17 @@
       <c r="D98" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E98" t="s">
+        <v>162</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>107</v>
       </c>
@@ -2279,8 +3183,17 @@
       <c r="D99" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E99" t="s">
+        <v>162</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>108</v>
       </c>
@@ -2293,8 +3206,17 @@
       <c r="D100" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E100" t="s">
+        <v>163</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>109</v>
       </c>
@@ -2307,8 +3229,17 @@
       <c r="D101" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E101" t="s">
+        <v>163</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>110</v>
       </c>
@@ -2321,8 +3252,17 @@
       <c r="D102" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E102" t="s">
+        <v>163</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>111</v>
       </c>
@@ -2335,8 +3275,17 @@
       <c r="D103" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E103" t="s">
+        <v>163</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>112</v>
       </c>
@@ -2349,8 +3298,17 @@
       <c r="D104" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E104" t="s">
+        <v>163</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>113</v>
       </c>
@@ -2363,8 +3321,17 @@
       <c r="D105" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E105" t="s">
+        <v>163</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>114</v>
       </c>
@@ -2377,8 +3344,17 @@
       <c r="D106" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E106" t="s">
+        <v>163</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>115</v>
       </c>
@@ -2391,8 +3367,17 @@
       <c r="D107" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E107" t="s">
+        <v>163</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
@@ -2405,8 +3390,17 @@
       <c r="D108" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E108" t="s">
+        <v>162</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>117</v>
       </c>
@@ -2419,8 +3413,17 @@
       <c r="D109" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E109" t="s">
+        <v>162</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>118</v>
       </c>
@@ -2433,8 +3436,17 @@
       <c r="D110" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E110" t="s">
+        <v>162</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>119</v>
       </c>
@@ -2447,8 +3459,17 @@
       <c r="D111" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E111" t="s">
+        <v>162</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>120</v>
       </c>
@@ -2461,8 +3482,17 @@
       <c r="D112" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E112" t="s">
+        <v>162</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
@@ -2475,8 +3505,17 @@
       <c r="D113" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E113" t="s">
+        <v>162</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>122</v>
       </c>
@@ -2489,8 +3528,17 @@
       <c r="D114" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E114" t="s">
+        <v>162</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>123</v>
       </c>
@@ -2503,8 +3551,17 @@
       <c r="D115" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E115" t="s">
+        <v>162</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>124</v>
       </c>
@@ -2517,8 +3574,17 @@
       <c r="D116" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E116" t="s">
+        <v>162</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>125</v>
       </c>
@@ -2531,8 +3597,17 @@
       <c r="D117" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E117" t="s">
+        <v>163</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>126</v>
       </c>
@@ -2545,8 +3620,17 @@
       <c r="D118" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>127</v>
       </c>
@@ -2559,8 +3643,17 @@
       <c r="D119" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E119" t="s">
+        <v>163</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>128</v>
       </c>
@@ -2573,8 +3666,17 @@
       <c r="D120" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E120" t="s">
+        <v>163</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>129</v>
       </c>
@@ -2587,8 +3689,17 @@
       <c r="D121" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E121" t="s">
+        <v>162</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>130</v>
       </c>
@@ -2601,8 +3712,17 @@
       <c r="D122" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E122" t="s">
+        <v>162</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>131</v>
       </c>
@@ -2615,8 +3735,17 @@
       <c r="D123" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E123" t="s">
+        <v>162</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>132</v>
       </c>
@@ -2629,8 +3758,17 @@
       <c r="D124" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E124" t="s">
+        <v>162</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>133</v>
       </c>
@@ -2643,8 +3781,17 @@
       <c r="D125" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E125" t="s">
+        <v>162</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>134</v>
       </c>
@@ -2657,8 +3804,17 @@
       <c r="D126" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E126" t="s">
+        <v>162</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>135</v>
       </c>
@@ -2671,8 +3827,17 @@
       <c r="D127" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E127" t="s">
+        <v>162</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>136</v>
       </c>
@@ -2685,8 +3850,17 @@
       <c r="D128" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E128" t="s">
+        <v>162</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>137</v>
       </c>
@@ -2699,8 +3873,17 @@
       <c r="D129" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E129" t="s">
+        <v>163</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>138</v>
       </c>
@@ -2713,8 +3896,17 @@
       <c r="D130" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E130" t="s">
+        <v>163</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>139</v>
       </c>
@@ -2727,8 +3919,17 @@
       <c r="D131" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E131" t="s">
+        <v>163</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>140</v>
       </c>
@@ -2741,8 +3942,17 @@
       <c r="D132" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E132" t="s">
+        <v>163</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>141</v>
       </c>
@@ -2755,8 +3965,17 @@
       <c r="D133" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E133" t="s">
+        <v>162</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>142</v>
       </c>
@@ -2769,8 +3988,17 @@
       <c r="D134" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E134" t="s">
+        <v>162</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>143</v>
       </c>
@@ -2783,8 +4011,17 @@
       <c r="D135" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E135" t="s">
+        <v>162</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>144</v>
       </c>
@@ -2797,8 +4034,17 @@
       <c r="D136" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E136" t="s">
+        <v>162</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>145</v>
       </c>
@@ -2811,8 +4057,17 @@
       <c r="D137" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E137" t="s">
+        <v>163</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>146</v>
       </c>
@@ -2825,8 +4080,17 @@
       <c r="D138" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E138" t="s">
+        <v>163</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>147</v>
       </c>
@@ -2839,8 +4103,17 @@
       <c r="D139" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E139" t="s">
+        <v>163</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>148</v>
       </c>
@@ -2853,8 +4126,17 @@
       <c r="D140" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E140" t="s">
+        <v>163</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>149</v>
       </c>
@@ -2867,8 +4149,17 @@
       <c r="D141" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E141" t="s">
+        <v>163</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>150</v>
       </c>
@@ -2881,8 +4172,17 @@
       <c r="D142" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E142" t="s">
+        <v>163</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>151</v>
       </c>
@@ -2895,8 +4195,17 @@
       <c r="D143" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E143" t="s">
+        <v>163</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>152</v>
       </c>
@@ -2909,8 +4218,17 @@
       <c r="D144" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E144" t="s">
+        <v>163</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>153</v>
       </c>
@@ -2923,8 +4241,17 @@
       <c r="D145" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E145" t="s">
+        <v>162</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>154</v>
       </c>
@@ -2937,8 +4264,17 @@
       <c r="D146" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E146" t="s">
+        <v>162</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>155</v>
       </c>
@@ -2951,8 +4287,17 @@
       <c r="D147" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E147" t="s">
+        <v>162</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>156</v>
       </c>
@@ -2965,8 +4310,17 @@
       <c r="D148" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E148" t="s">
+        <v>162</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>157</v>
       </c>
@@ -2979,9 +4333,19 @@
       <c r="D149" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E149" t="s">
+        <v>162</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
